--- a/Outputs/PtX_demand_RO.xlsx
+++ b/Outputs/PtX_demand_RO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,60 +493,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.0005636930456788687</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0007755803143845905</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.5099343443556e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0004504922364282554</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0005636930456788687</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0007755803143845905</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1.5099343443556e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0004504922364282554</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.01071868213731395</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -558,16 +560,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.01071868213731395</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -587,18 +587,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.001321923751049473</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0002946819053396</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6.918841025270784e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -606,24 +612,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.001321923751049473</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0002946819053396</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>6.918841025270784e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,17 +632,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.01480344166157238</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001343076135147</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.679674945893857e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0150833559148795</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002528386855318</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0051948817831295</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -650,30 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.01480344166157238</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001343076135147</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.679674945893857e-05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0150833559148795</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0002528386855318</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0051948817831295</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.003278749924607429</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.003278749924607429</v>
+        <v>0.001418135584532027</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,81 +696,99 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.0005636930456788687</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01071868213731395</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.001418135584532027</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.006018809260188929</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01587370388129657</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0001343076135147</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.679825939328293e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01560303656156046</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002528386855318</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0051948817831295</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.001614804446179017</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0036905536638659</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.263981819647457e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0006354295664757</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.001614804446179017</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0036905536638659</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.263981819647457e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0006354295664757</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0.008216655125306753</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -780,28 +800,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.008216655125306753</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.411418525020487e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.891418767955749e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,14 +831,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.005249890622688761</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.411418525020487e-09</v>
+        <v>0.0003473543858705</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.891418767955749e-10</v>
+        <v>0.0001299934446870049</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -824,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,24 +856,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.005249890622688761</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0003473543858705</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.0001299934446870049</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -858,17 +876,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.006877661779708368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002189435674046</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0001037107569605</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0098279020055335</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003071579676164</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0060974512509034</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -876,30 +906,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.006877661779708368</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0002189435674046</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0001037107569605</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0098279020055335</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0003071579676164</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0060974512509034</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.003322654056724997</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -908,7 +928,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.003322654056724997</v>
+        <v>0.005671361021945911</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -920,81 +940,99 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.001614804446179017</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.008216655125306753</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.005671361021945911</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.01424390570135967</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01091557124086329</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002189435674046</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0001038371551424647</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01059332520583808</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003071579676164</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0060974512509034</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.00338334520507663</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.005136423638254999</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>2.142347372596333e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0010083991066546</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.00338334520507663</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.005136423638254999</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>2.142347372596333e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0010083991066546</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.007194422490000695</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1006,28 +1044,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.007194422490000695</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.83608376887917e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.084482658611099e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1035,14 +1075,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.01308643669280649</v>
+      </c>
       <c r="F26" t="n">
-        <v>1.83608376887917e-08</v>
+        <v>6.640844061930469e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.084482658611099e-09</v>
+        <v>3.813628671025667e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1050,7 +1092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1058,24 +1100,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.01308643669280649</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>6.640844061930469e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>3.66240881979763e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.062508206343759e-12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.163867912906638e-12</v>
+      </c>
       <c r="I27" t="n">
-        <v>3.813628671025667e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.683907371141624e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.103671384109167e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.760775405349083e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,28 +1133,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.66240881979763e-11</v>
+        <v>0.0008048153837875063</v>
       </c>
       <c r="G28" t="n">
-        <v>8.062508206343759e-12</v>
+        <v>0.0003912137147176</v>
       </c>
       <c r="H28" t="n">
-        <v>2.163867912906638e-12</v>
+        <v>0.0001638585647684</v>
       </c>
       <c r="I28" t="n">
-        <v>1.683907371141624e-10</v>
+        <v>0.0025226544953628</v>
       </c>
       <c r="J28" t="n">
-        <v>2.103671384109167e-12</v>
+        <v>0.0003950537863859</v>
       </c>
       <c r="K28" t="n">
-        <v>5.760775405349083e-10</v>
+        <v>0.0085810074458284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1114,30 +1162,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0008048153837875063</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0003912137147176</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0001638585647684</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0025226544953628</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0003950537863859</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0085810074458284</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.003340881264700904</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1146,7 +1184,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.003340881264700904</v>
+        <v>0.0141774429425305</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1158,23 +1196,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.00338334520507663</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.007194422490000695</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.0141774429425305</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.0306047609000379</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.006007665860123588</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0003912137227801082</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0001640728016695276</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.003569194141601052</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0003950537884895714</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.00858100802190594</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_RO.xlsx
+++ b/Outputs/PtX_demand_RO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -613,17 +613,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0029881629419515</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0003155790193653426</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,29 +636,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.01480344166157238</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0001343076135147</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.679674945893857e-05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0150833559148795</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0002528386855318</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0051948817831295</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +654,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.003278749924607429</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.01480344166157238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001343076135147</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003749381908909639</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0150833559148795</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002528386855318</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0051948817831295</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,124 +685,136 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.001418135584532027</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1394516376886295</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0009458891369323</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0341995366953689</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.09419884985513931</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0015304330954511</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04768466602398019</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0005636930456788687</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01071868213731395</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.006018809260188929</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01587370388129657</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001343076135147</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.679825939328293e-05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01560303656156046</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0002528386855318</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0051948817831295</v>
-      </c>
+        <v>0.003278749924607429</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001614804446179017</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0036905536638659</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.001418135584532027</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.263981819647457e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0006354295664757</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0005636930456788687</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01071868213731395</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.006018809260188929</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1583135045118776</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001080196750447</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03794892011421288</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1101174654360651</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0017832717809829</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05287954780710969</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.008216655125306753</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.001614804446179017</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0036905536638659</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.263981819647457e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0006354295664757</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -809,46 +823,38 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.411418525020487e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.891418767955749e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.005249890622688761</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0003473543858705</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.008216655125306753</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.0001299934446870049</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -857,17 +863,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.411418525020487e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.891418767955749e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -875,30 +885,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.005249890622688761</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.006877661779708368</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0002189435674046</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0001037107569605</v>
-      </c>
+        <v>0.0003473543858705</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0098279020055335</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0003071579676164</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0060974512509034</v>
-      </c>
+        <v>0.0001299934446870049</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -906,20 +910,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.003322654056724997</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0016676381462925</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0003320554996693197</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -927,9 +933,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.005671361021945911</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -940,32 +944,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.001614804446179017</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.008216655125306753</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01424390570135967</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.01091557124086329</v>
+        <v>0.006877661779708368</v>
       </c>
       <c r="G21" t="n">
         <v>0.0002189435674046</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001038371551424647</v>
+        <v>0.0045867319142269</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01059332520583808</v>
+        <v>0.0098279020055335</v>
       </c>
       <c r="J21" t="n">
         <v>0.0003071579676164</v>
@@ -977,42 +975,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.00338334520507663</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.005136423638254999</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.039865990417804</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0010168834109446</v>
+      </c>
       <c r="H22" t="n">
-        <v>2.142347372596333e-07</v>
+        <v>0.0322537194880227</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0010083991066546</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0414804807529571</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0013581224519344</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0455016934531268</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.003322654056724997</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1023,17 +1027,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.007194422490000695</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.005671361021945911</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1044,47 +1048,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.001614804446179017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.008216655125306753</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01424390570135967</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.83608376887917e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.05244919980495979</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0012358269783492</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03684057780043156</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.084482658611099e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.0524058614584645</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0016652804195508</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.05159914470403019</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.00338334520507663</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.01308643669280649</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>6.640844061930469e-05</v>
+        <v>0.005136423638254999</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2.142347372596333e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>3.813628671025667e-05</v>
+        <v>0.0010083991066546</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1092,7 +1112,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1101,60 +1121,38 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>3.66240881979763e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8.062508206343759e-12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.163867912906638e-12</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.683907371141624e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.103671384109167e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.760775405349083e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.007194422490000695</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0008048153837875063</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0003912137147176</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0001638585647684</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0025226544953628</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0003950537863859</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0085810074458284</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1162,20 +1160,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.003340881264700904</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.83608376887917e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.084482658611099e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1184,50 +1184,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0141774429425305</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.01308643669280649</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.640844061930469e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>3.813628671025667e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.000131868484186315</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.000128054758064263</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3.66240881979763e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.062508206343759e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.748824916236383e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.683907371141624e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.103671384109167e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.760775405349083e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0008048153837875063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0003912137147176</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0060356504015384</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0025226544953628</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0003950537863859</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0085810074458284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0024452817631911</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0009171857712999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0291521602595318</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0074672623820571</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0011690051194949</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0415694018698083</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.003340881264700904</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0141774429425305</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.00338334520507663</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.007194422490000695</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.0306047609000379</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.006007665860123588</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0003912137227801082</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.0001640728016695276</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.003569194141601052</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0003950537884895714</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.00858100802190594</v>
+      <c r="F37" t="n">
+        <v>0.008584816107501003</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001308399494080008</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03518802507068995</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01116451128172241</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001564058907984471</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.05015040989171424</v>
       </c>
     </row>
   </sheetData>
